--- a/(2분반)2013136038,2013136062_박성준,신찬욱_마이크로프로세서 및 실습_재료구매신청서.xlsx
+++ b/(2분반)2013136038,2013136062_박성준,신찬욱_마이크로프로세서 및 실습_재료구매신청서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,11 +130,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BBJ__65 점퍼 와이어세트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.eleparts.co.kr/EPXCTKGY</t>
+    <t>부품 통일 목록에서 확인했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -255,6 +252,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -266,12 +269,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,44 +564,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7362824" y="2352675"/>
-          <a:ext cx="2171701" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -863,7 +822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -871,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -884,72 +843,72 @@
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>2.01313603820131E+19</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -972,128 +931,119 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>36000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>36000</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>15600</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>15600</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>4100</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>4100</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>1000</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>20000</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>1250</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>6250</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>3000</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>27</v>
-      </c>
+    <row r="12" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1102,7 +1052,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1111,7 +1061,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1120,7 +1070,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1138,7 +1088,7 @@
       </c>
       <c r="E17" s="1">
         <f>SUM(E7:E16)</f>
-        <v>84950</v>
+        <v>81950</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>

--- a/(2분반)2013136038,2013136062_박성준,신찬욱_마이크로프로세서 및 실습_재료구매신청서.xlsx
+++ b/(2분반)2013136038,2013136062_박성준,신찬욱_마이크로프로세서 및 실습_재료구매신청서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,13 +71,6 @@
   <si>
     <t>과목명</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adafruit 'Music Maker' MP3 Shield [ada-1790]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/1171233</t>
   </si>
   <si>
     <r>
@@ -127,10 +120,6 @@
   </si>
   <si>
     <t>Drop the beat!(전자 드럼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부품 통일 목록에서 확인했습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,61 +281,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1181100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="_x204776744" descr="EMB000013fc0c17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9039225" y="1285875"/>
-          <a:ext cx="1638300" cy="1152525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -365,7 +299,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -420,7 +354,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -475,7 +409,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -530,7 +464,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -822,7 +756,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -830,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -843,12 +777,12 @@
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -856,7 +790,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,7 +803,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,12 +816,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -895,12 +829,12 @@
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -908,7 +842,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -931,35 +865,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <v>36000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>36000</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>15600</v>
@@ -971,15 +891,15 @@
         <v>15600</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>4100</v>
@@ -991,15 +911,15 @@
         <v>4100</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>1000</v>
@@ -1011,15 +931,15 @@
         <v>20000</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
         <v>1250</v>
@@ -1031,10 +951,10 @@
         <v>6250</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="22.5" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -1043,7 +963,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1052,7 +972,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1061,7 +981,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1070,7 +990,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1088,7 +1008,7 @@
       </c>
       <c r="E17" s="1">
         <f>SUM(E7:E16)</f>
-        <v>81950</v>
+        <v>45950</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
